--- a/SFT-MS4/Project/MS4 - Blackbox and White Test_FuncImplem.xlsx
+++ b/SFT-MS4/Project/MS4 - Blackbox and White Test_FuncImplem.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geisiane Pires\Documents\03. RENAN\TransferFiles-Github\TransferFiles\SFT-MS3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geisiane Pires\Documents\03. RENAN\TransferFiles-Github\TransferFiles\SFT-MS4\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CA9A41-9990-4D78-BB8F-B80F7D1BDBD2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C191CD2-4B32-40FC-A1F0-982B709AA88E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="1095" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
   <si>
     <t>PARAMETERS</t>
   </si>
@@ -94,9 +94,6 @@
     <t>{25,25}</t>
   </si>
   <si>
-    <t>Testing if there is a maximum value for input, since our code is a 25x25, we should not accept more than 25</t>
-  </si>
-  <si>
     <t>FUNCTION: shortestPath</t>
   </si>
   <si>
@@ -106,12 +103,6 @@
     <t>{2.5,10.8}</t>
   </si>
   <si>
-    <t>{1000,1000}</t>
-  </si>
-  <si>
-    <t>{-1000,-1000}</t>
-  </si>
-  <si>
     <t>Testing if float numbers are accepted. We expect our float be treated as integer since our gride is only integers</t>
   </si>
   <si>
@@ -176,6 +167,18 @@
   </si>
   <si>
     <t>Testing if the truck is able to move freely (left, right, up and down)</t>
+  </si>
+  <si>
+    <t>{-25,-25}</t>
+  </si>
+  <si>
+    <t>This test verifies that the function correctly calculates the distance between the negative and positive of the point (25,25).</t>
+  </si>
+  <si>
+    <t>{-100,-100}</t>
+  </si>
+  <si>
+    <t>Testing two negative input</t>
   </si>
 </sst>
 </file>
@@ -328,28 +331,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -381,6 +366,24 @@
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -663,234 +666,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE525DCE-8DA5-4307-A4B7-5F1C0D0565E7}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="56.140625" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="10">
         <v>0</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="10">
         <v>0</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>3</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="10">
         <v>35.36</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>4</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="10">
+        <v>10.198</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="16">
-        <v>10.198</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <v>5</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="25">
-        <v>2828427124.7461901</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="3"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2">
-        <f>B12^2</f>
-        <v>4</v>
-      </c>
-      <c r="D12" s="7">
-        <f>SQRT(C12+C13)</f>
-        <v>10.198039027185569</v>
-      </c>
-      <c r="E12" s="2">
-        <f>SQRT(2)</f>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2">
-        <f>B13^2</f>
-        <v>100</v>
-      </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="10">
+        <v>70.709999999999994</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="3"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="25"/>
+      <c r="D13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="25"/>
+      <c r="D15" s="6"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D16" s="5"/>
-      <c r="F16" s="8"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="25"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D17" s="5"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="5"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="6"/>
-      <c r="F19" s="1"/>
+      <c r="D19" s="5"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="5"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="6"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.25">
@@ -967,6 +976,15 @@
     </row>
     <row r="47" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -987,7 +1005,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A4" sqref="A4:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,38 +1020,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
+      <c r="A1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="23" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
@@ -1043,155 +1061,155 @@
       <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>2</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="C8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
-        <v>2</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="22" t="s">
+      <c r="B9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
-        <v>3</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
-        <v>4</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
-        <v>5</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="16" t="s">
+      <c r="D9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="15" t="s">
+      <c r="F9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
-        <v>6</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="21" t="s">
+      <c r="G9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="17"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D10" s="3"/>
-      <c r="G10" s="9"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G11" s="1"/>
@@ -1315,12 +1333,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1501,15 +1516,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A445DA8-61DA-4B15-A75B-C715E0A15404}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D20CED7A-A184-4DAD-98D0-D68B5D737C5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="7db3b190-d1cf-4882-bee6-3064ce691739"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="7e7c8aa9-4be2-48a6-a0f7-80013db2e73b"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1534,18 +1561,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D20CED7A-A184-4DAD-98D0-D68B5D737C5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A445DA8-61DA-4B15-A75B-C715E0A15404}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="7db3b190-d1cf-4882-bee6-3064ce691739"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="7e7c8aa9-4be2-48a6-a0f7-80013db2e73b"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>